--- a/biology/Zoologie/Colossendeidae/Colossendeidae.xlsx
+++ b/biology/Zoologie/Colossendeidae/Colossendeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colossendeidae sont une famille de pycnogonides.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Colossendeidae est attribuée en 1870 au naturaliste russe Fedor Faddeevitch Jarzynsky (d) (1839-1908).
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon PycnoBase :
 Colossendeinae
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jarzynsky, 1870 : « Praemissus catalogus Pycnogonidarum, inventarum in mari Glaciali, ad oras Lapponiae rossicae et in mari Albo, anno 1869 et 1870 ». Annales de la Société des Naturalistes de St. Petersbourg, vol. 1, p. 319–320.</t>
         </is>
